--- a/Corriene P.xlsx
+++ b/Corriene P.xlsx
@@ -18109,10 +18109,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="n">
-        <v>0.0007071067811921239</v>
+        <v>199.9987890975842</v>
       </c>
       <c r="C2" s="15" t="n">
-        <v>-1.017777498078552e-14</v>
+        <v>-1.017777498068326e-14</v>
       </c>
       <c r="D2" s="15" t="n">
         <v>9.999999999999998</v>
@@ -18145,10 +18145,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>99.99978180460921</v>
+        <v>223.6056171051376</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-89.99959485677373</v>
+        <v>-26.5651399294693</v>
       </c>
       <c r="D3" s="15" t="n">
         <v>9.999999999999998</v>
@@ -25934,10 +25934,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="n">
-        <v>-999.9878909999996</v>
+        <v>999.9878909999993</v>
       </c>
       <c r="D2" s="8" t="n">
-        <v>-1.256061921162444e-18</v>
+        <v>3.552658098371352e-13</v>
       </c>
       <c r="E2" s="12" t="n"/>
       <c r="F2" s="12" t="n"/>
@@ -26501,10 +26501,18 @@
       <c r="X18" s="12" t="n"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="17" t="n"/>
-      <c r="B19" s="17" t="n"/>
-      <c r="C19" s="8" t="n"/>
-      <c r="D19" s="8" t="n"/>
+      <c r="A19" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>-0.007071050000055763</v>
+      </c>
+      <c r="D19" s="8" t="n">
+        <v>1.256070802946641e-18</v>
+      </c>
       <c r="E19" s="12" t="n"/>
       <c r="F19" s="12" t="n"/>
       <c r="G19" s="12" t="n"/>
@@ -26527,10 +26535,18 @@
       <c r="X19" s="12" t="n"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="17" t="n"/>
-      <c r="B20" s="17" t="n"/>
-      <c r="C20" s="8" t="n"/>
-      <c r="D20" s="8" t="n"/>
+      <c r="A20" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>-0.007071050000055763</v>
+      </c>
+      <c r="D20" s="8" t="n">
+        <v>1.256070802946641e-18</v>
+      </c>
       <c r="E20" s="12" t="n"/>
       <c r="F20" s="12" t="n"/>
       <c r="G20" s="12" t="n"/>
@@ -26553,10 +26569,18 @@
       <c r="X20" s="12" t="n"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="17" t="n"/>
-      <c r="B21" s="17" t="n"/>
-      <c r="C21" s="8" t="n"/>
-      <c r="D21" s="8" t="n"/>
+      <c r="A21" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>-0.007071050000055763</v>
+      </c>
+      <c r="D21" s="8" t="n">
+        <v>1.256070802946641e-18</v>
+      </c>
       <c r="E21" s="12" t="n"/>
       <c r="F21" s="12" t="n"/>
       <c r="G21" s="12" t="n"/>
@@ -26579,10 +26603,18 @@
       <c r="X21" s="12" t="n"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="17" t="n"/>
-      <c r="B22" s="17" t="n"/>
-      <c r="C22" s="8" t="n"/>
-      <c r="D22" s="8" t="n"/>
+      <c r="A22" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>-0.007071050000055763</v>
+      </c>
+      <c r="D22" s="8" t="n">
+        <v>1.256070802946641e-18</v>
+      </c>
       <c r="E22" s="12" t="n"/>
       <c r="F22" s="12" t="n"/>
       <c r="G22" s="12" t="n"/>
@@ -26605,10 +26637,18 @@
       <c r="X22" s="12" t="n"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="17" t="n"/>
-      <c r="B23" s="17" t="n"/>
-      <c r="C23" s="8" t="n"/>
-      <c r="D23" s="8" t="n"/>
+      <c r="A23" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>1999.982853049999</v>
+      </c>
+      <c r="D23" s="8" t="n">
+        <v>-3.552683219698592e-13</v>
+      </c>
       <c r="E23" s="12" t="n"/>
       <c r="F23" s="12" t="n"/>
       <c r="G23" s="12" t="n"/>
@@ -39164,22 +39204,22 @@
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="16" t="n">
-        <v>-999.9949620499997</v>
+        <v>2999.970744049999</v>
       </c>
       <c r="B2" s="16" t="n">
-        <v>8.881784197333691e-24</v>
+        <v>-2.512132724069753e-18</v>
       </c>
       <c r="C2" s="16" t="n">
-        <v>999.9949620499997</v>
+        <v>999.9949620499991</v>
       </c>
       <c r="D2" s="16" t="n">
-        <v>0.004067046165118882</v>
+        <v>3999.970550921148</v>
       </c>
       <c r="E2" s="16" t="n">
-        <v>-1999.989924099999</v>
+        <v>1999.975782</v>
       </c>
       <c r="F2" s="16" t="n">
-        <v>-0.004067046165118882</v>
+        <v>-3999.970550921148</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1"/>

--- a/Corriene P.xlsx
+++ b/Corriene P.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11340" tabRatio="590" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11340" tabRatio="590" firstSheet="1" activeTab="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="f_and_ouput" sheetId="1" state="visible" r:id="rId1"/>
@@ -573,7 +573,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -25873,7 +25873,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -25933,11 +25933,15 @@
       <c r="B2" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="n">
-        <v>999.9878909999993</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>999.9878909999993</t>
+        </is>
       </c>
-      <c r="D2" s="8" t="n">
-        <v>3.552658098371352e-13</v>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>3.552658098371352e-13</t>
+        </is>
       </c>
       <c r="E2" s="12" t="n"/>
       <c r="F2" s="12" t="n"/>
@@ -25968,10 +25972,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="8" t="n">
-        <v>-239.9557999960312</v>
+        <v>1999.982853049999</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>0.0009759002659216222</v>
+        <v>-999.9952990484161</v>
       </c>
       <c r="E3" s="12" t="n"/>
       <c r="F3" s="12" t="n"/>
@@ -25995,18 +25999,10 @@
       <c r="X3" s="12" t="n"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8" t="n">
-        <v>0.004066980994728897</v>
-      </c>
-      <c r="D4" s="8" t="n">
-        <v>-999.9952990031172</v>
-      </c>
+      <c r="A4" s="17" t="n"/>
+      <c r="B4" s="17" t="n"/>
+      <c r="C4" s="8" t="n"/>
+      <c r="D4" s="8" t="n"/>
       <c r="E4" s="12" t="n"/>
       <c r="F4" s="12" t="n"/>
       <c r="G4" s="12" t="n"/>
@@ -26029,18 +26025,10 @@
       <c r="X4" s="12" t="n"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8" t="n">
-        <v>0.004066980994728897</v>
-      </c>
-      <c r="D5" s="8" t="n">
-        <v>-999.9952990031172</v>
-      </c>
+      <c r="A5" s="17" t="n"/>
+      <c r="B5" s="17" t="n"/>
+      <c r="C5" s="8" t="n"/>
+      <c r="D5" s="8" t="n"/>
       <c r="E5" s="12" t="n"/>
       <c r="F5" s="12" t="n"/>
       <c r="G5" s="12" t="n"/>
@@ -26063,18 +26051,10 @@
       <c r="X5" s="12" t="n"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8" t="n">
-        <v>0.004066980994728897</v>
-      </c>
-      <c r="D6" s="8" t="n">
-        <v>-999.9952990031172</v>
-      </c>
+      <c r="A6" s="17" t="n"/>
+      <c r="B6" s="17" t="n"/>
+      <c r="C6" s="8" t="n"/>
+      <c r="D6" s="8" t="n"/>
       <c r="E6" s="12" t="n"/>
       <c r="F6" s="12" t="n"/>
       <c r="G6" s="12" t="n"/>
@@ -26097,18 +26077,10 @@
       <c r="X6" s="12" t="n"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="8" t="n">
-        <v>0.004066980994728897</v>
-      </c>
-      <c r="D7" s="8" t="n">
-        <v>-999.9952990031172</v>
-      </c>
+      <c r="A7" s="17" t="n"/>
+      <c r="B7" s="17" t="n"/>
+      <c r="C7" s="8" t="n"/>
+      <c r="D7" s="8" t="n"/>
       <c r="E7" s="12" t="n"/>
       <c r="F7" s="12" t="n"/>
       <c r="G7" s="12" t="n"/>
@@ -26131,18 +26103,10 @@
       <c r="X7" s="12" t="n"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8" t="n">
-        <v>0.004066980994728897</v>
-      </c>
-      <c r="D8" s="8" t="n">
-        <v>-999.9952990031172</v>
-      </c>
+      <c r="A8" s="17" t="n"/>
+      <c r="B8" s="17" t="n"/>
+      <c r="C8" s="8" t="n"/>
+      <c r="D8" s="8" t="n"/>
       <c r="E8" s="12" t="n"/>
       <c r="F8" s="12" t="n"/>
       <c r="G8" s="12" t="n"/>
@@ -26165,18 +26129,10 @@
       <c r="X8" s="12" t="n"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="8" t="n">
-        <v>0.004066980994728897</v>
-      </c>
-      <c r="D9" s="8" t="n">
-        <v>-999.9952990031172</v>
-      </c>
+      <c r="A9" s="17" t="n"/>
+      <c r="B9" s="17" t="n"/>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="8" t="n"/>
       <c r="E9" s="12" t="n"/>
       <c r="F9" s="12" t="n"/>
       <c r="G9" s="12" t="n"/>
@@ -26199,18 +26155,10 @@
       <c r="X9" s="12" t="n"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="8" t="n">
-        <v>0.004066980994728897</v>
-      </c>
-      <c r="D10" s="8" t="n">
-        <v>-999.9952990031172</v>
-      </c>
+      <c r="A10" s="17" t="n"/>
+      <c r="B10" s="17" t="n"/>
+      <c r="C10" s="8" t="n"/>
+      <c r="D10" s="8" t="n"/>
       <c r="E10" s="12" t="n"/>
       <c r="F10" s="12" t="n"/>
       <c r="G10" s="12" t="n"/>
@@ -26233,18 +26181,10 @@
       <c r="X10" s="12" t="n"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="8" t="n">
-        <v>0.004066980994728897</v>
-      </c>
-      <c r="D11" s="8" t="n">
-        <v>-999.9952990031172</v>
-      </c>
+      <c r="A11" s="17" t="n"/>
+      <c r="B11" s="17" t="n"/>
+      <c r="C11" s="8" t="n"/>
+      <c r="D11" s="8" t="n"/>
       <c r="E11" s="12" t="n"/>
       <c r="F11" s="12" t="n"/>
       <c r="G11" s="12" t="n"/>
@@ -26267,18 +26207,10 @@
       <c r="X11" s="12" t="n"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8" t="n">
-        <v>0.004066980994728897</v>
-      </c>
-      <c r="D12" s="8" t="n">
-        <v>-999.9952990031172</v>
-      </c>
+      <c r="A12" s="17" t="n"/>
+      <c r="B12" s="17" t="n"/>
+      <c r="C12" s="8" t="n"/>
+      <c r="D12" s="8" t="n"/>
       <c r="E12" s="12" t="n"/>
       <c r="F12" s="12" t="n"/>
       <c r="G12" s="12" t="n"/>
@@ -26301,18 +26233,10 @@
       <c r="X12" s="12" t="n"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>0.004066980994728897</v>
-      </c>
-      <c r="D13" s="8" t="n">
-        <v>-999.9952990031172</v>
-      </c>
+      <c r="A13" s="17" t="n"/>
+      <c r="B13" s="17" t="n"/>
+      <c r="C13" s="8" t="n"/>
+      <c r="D13" s="8" t="n"/>
       <c r="E13" s="12" t="n"/>
       <c r="F13" s="12" t="n"/>
       <c r="G13" s="12" t="n"/>
@@ -26335,18 +26259,10 @@
       <c r="X13" s="12" t="n"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="8" t="n">
-        <v>0.004066980994728897</v>
-      </c>
-      <c r="D14" s="8" t="n">
-        <v>-999.9952990031172</v>
-      </c>
+      <c r="A14" s="17" t="n"/>
+      <c r="B14" s="17" t="n"/>
+      <c r="C14" s="8" t="n"/>
+      <c r="D14" s="8" t="n"/>
       <c r="E14" s="12" t="n"/>
       <c r="F14" s="12" t="n"/>
       <c r="G14" s="12" t="n"/>
@@ -26369,14 +26285,10 @@
       <c r="X14" s="12" t="n"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B15" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="8" t="inlineStr"/>
-      <c r="D15" s="8" t="inlineStr"/>
+      <c r="A15" s="17" t="n"/>
+      <c r="B15" s="17" t="n"/>
+      <c r="C15" s="8" t="n"/>
+      <c r="D15" s="8" t="n"/>
       <c r="E15" s="12" t="n"/>
       <c r="F15" s="12" t="n"/>
       <c r="G15" s="12" t="n"/>
@@ -26399,18 +26311,10 @@
       <c r="X15" s="12" t="n"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>-0.007071050000055763</v>
-      </c>
-      <c r="D16" s="8" t="n">
-        <v>1.256070802946641e-18</v>
-      </c>
+      <c r="A16" s="17" t="n"/>
+      <c r="B16" s="17" t="n"/>
+      <c r="C16" s="8" t="n"/>
+      <c r="D16" s="8" t="n"/>
       <c r="E16" s="12" t="n"/>
       <c r="F16" s="12" t="n"/>
       <c r="G16" s="12" t="n"/>
@@ -26433,18 +26337,10 @@
       <c r="X16" s="12" t="n"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B17" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="8" t="n">
-        <v>-0.007071050000055763</v>
-      </c>
-      <c r="D17" s="8" t="n">
-        <v>1.256070802946641e-18</v>
-      </c>
+      <c r="A17" s="17" t="n"/>
+      <c r="B17" s="17" t="n"/>
+      <c r="C17" s="8" t="n"/>
+      <c r="D17" s="8" t="n"/>
       <c r="E17" s="12" t="n"/>
       <c r="F17" s="12" t="n"/>
       <c r="G17" s="12" t="n"/>
@@ -26467,18 +26363,10 @@
       <c r="X17" s="12" t="n"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B18" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="8" t="n">
-        <v>-0.007071050000055763</v>
-      </c>
-      <c r="D18" s="8" t="n">
-        <v>1.256070802946641e-18</v>
-      </c>
+      <c r="A18" s="17" t="n"/>
+      <c r="B18" s="17" t="n"/>
+      <c r="C18" s="8" t="n"/>
+      <c r="D18" s="8" t="n"/>
       <c r="E18" s="12" t="n"/>
       <c r="F18" s="12" t="n"/>
       <c r="G18" s="12" t="n"/>
@@ -26501,18 +26389,10 @@
       <c r="X18" s="12" t="n"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B19" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="8" t="n">
-        <v>-0.007071050000055763</v>
-      </c>
-      <c r="D19" s="8" t="n">
-        <v>1.256070802946641e-18</v>
-      </c>
+      <c r="A19" s="17" t="n"/>
+      <c r="B19" s="17" t="n"/>
+      <c r="C19" s="8" t="n"/>
+      <c r="D19" s="8" t="n"/>
       <c r="E19" s="12" t="n"/>
       <c r="F19" s="12" t="n"/>
       <c r="G19" s="12" t="n"/>
@@ -26535,18 +26415,10 @@
       <c r="X19" s="12" t="n"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B20" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="8" t="n">
-        <v>-0.007071050000055763</v>
-      </c>
-      <c r="D20" s="8" t="n">
-        <v>1.256070802946641e-18</v>
-      </c>
+      <c r="A20" s="17" t="n"/>
+      <c r="B20" s="17" t="n"/>
+      <c r="C20" s="8" t="n"/>
+      <c r="D20" s="8" t="n"/>
       <c r="E20" s="12" t="n"/>
       <c r="F20" s="12" t="n"/>
       <c r="G20" s="12" t="n"/>
@@ -26569,18 +26441,10 @@
       <c r="X20" s="12" t="n"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B21" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="8" t="n">
-        <v>-0.007071050000055763</v>
-      </c>
-      <c r="D21" s="8" t="n">
-        <v>1.256070802946641e-18</v>
-      </c>
+      <c r="A21" s="17" t="n"/>
+      <c r="B21" s="17" t="n"/>
+      <c r="C21" s="8" t="n"/>
+      <c r="D21" s="8" t="n"/>
       <c r="E21" s="12" t="n"/>
       <c r="F21" s="12" t="n"/>
       <c r="G21" s="12" t="n"/>
@@ -26603,18 +26467,10 @@
       <c r="X21" s="12" t="n"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B22" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="8" t="n">
-        <v>-0.007071050000055763</v>
-      </c>
-      <c r="D22" s="8" t="n">
-        <v>1.256070802946641e-18</v>
-      </c>
+      <c r="A22" s="17" t="n"/>
+      <c r="B22" s="17" t="n"/>
+      <c r="C22" s="8" t="n"/>
+      <c r="D22" s="8" t="n"/>
       <c r="E22" s="12" t="n"/>
       <c r="F22" s="12" t="n"/>
       <c r="G22" s="12" t="n"/>
@@ -26637,18 +26493,10 @@
       <c r="X22" s="12" t="n"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B23" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="8" t="n">
-        <v>1999.982853049999</v>
-      </c>
-      <c r="D23" s="8" t="n">
-        <v>-3.552683219698592e-13</v>
-      </c>
+      <c r="A23" s="17" t="n"/>
+      <c r="B23" s="17" t="n"/>
+      <c r="C23" s="8" t="n"/>
+      <c r="D23" s="8" t="n"/>
       <c r="E23" s="12" t="n"/>
       <c r="F23" s="12" t="n"/>
       <c r="G23" s="12" t="n"/>
@@ -32598,7 +32446,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -32658,11 +32506,15 @@
       <c r="B2" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="n">
-        <v>0</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
-      <c r="D2" s="8" t="n">
-        <v>-999.9952990484157</v>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>-999.9952990484157</t>
+        </is>
       </c>
       <c r="E2" s="12" t="n"/>
       <c r="F2" s="12" t="n"/>
@@ -39155,8 +39007,8 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -39207,19 +39059,19 @@
         <v>2999.970744049999</v>
       </c>
       <c r="B2" s="16" t="n">
-        <v>-2.512132724069753e-18</v>
+        <v>-999.9952990484157</v>
       </c>
       <c r="C2" s="16" t="n">
         <v>999.9949620499991</v>
       </c>
       <c r="D2" s="16" t="n">
-        <v>3999.970550921148</v>
+        <v>-0.004066979624440137</v>
       </c>
       <c r="E2" s="16" t="n">
         <v>1999.975782</v>
       </c>
       <c r="F2" s="16" t="n">
-        <v>-3999.970550921148</v>
+        <v>-999.9912320687913</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1"/>

--- a/Corriene P.xlsx
+++ b/Corriene P.xlsx
@@ -25873,7 +25873,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="A2:D5"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -25975,7 +25975,7 @@
         <v>1999.982853049999</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>-999.9952990484161</v>
+        <v>-0.00406697962469923</v>
       </c>
       <c r="E3" s="12" t="n"/>
       <c r="F3" s="12" t="n"/>
@@ -32446,7 +32446,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="A2:D2"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -39059,7 +39059,7 @@
         <v>2999.970744049999</v>
       </c>
       <c r="B2" s="16" t="n">
-        <v>-999.9952990484157</v>
+        <v>-0.004066979624343964</v>
       </c>
       <c r="C2" s="16" t="n">
         <v>999.9949620499991</v>
@@ -39071,7 +39071,7 @@
         <v>1999.975782</v>
       </c>
       <c r="F2" s="16" t="n">
-        <v>-999.9912320687913</v>
+        <v>9.617306950815419e-14</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1"/>
